--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure2.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure2.xlsx
@@ -37,6 +37,21 @@
     <t>a1cresult</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
+    <t>insulin</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -46,34 +61,19 @@
     <t>admission_source_id</t>
   </si>
   <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>number_emergency</t>
+    <t>number_inpatient</t>
   </si>
   <si>
-    <t>number_inpatient</t>
+    <t>number_emergency</t>
   </si>
   <si>
     <t>number_outpatient</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.300654450356502</v>
+        <v>1.297627206157292</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.298326612608809</v>
+        <v>1.296181425543152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1.248158645026816</v>
+        <v>1.241643158261662</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1.186342028003479</v>
+        <v>1.211060141638997</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1.185160437728958</v>
+        <v>1.170174726394006</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -583,7 +583,7 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1.175139302786006</v>
+        <v>1.167403896861356</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>1.16970201529168</v>
+        <v>1.166482035939725</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -617,7 +617,7 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.165275083950617</v>
+        <v>1.164880677439055</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164861745225978</v>
+        <v>1.164463076918938</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>1.164632260740937</v>
+        <v>1.164045763430322</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1.161895003862225</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1.161493852005116</v>
+        <v>1.161268307360299</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.161394510621746</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.154700538379251</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.144571390574773</v>
+        <v>1.133990014525968</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>1.132139247494994</v>
+        <v>1.086353013265005</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -798,13 +798,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1.10801864719137</v>
+        <v>1.042314613294095</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9822917535993922</v>
+        <v>0.9829230078724204</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9791630014295096</v>
+        <v>0.9782420438897035</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9763545619133179</v>
+        <v>0.9772835967183251</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9735038219854281</v>
+        <v>0.974061581139521</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9658814100938152</v>
+        <v>0.9673938835270024</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9656177980166967</v>
+        <v>0.9663125661623762</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9654942722356219</v>
+        <v>0.9659869933412183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9653990200000602</v>
+        <v>0.9656819435743796</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9651071825502965</v>
+        <v>0.9656736501851619</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9649071533513459</v>
+        <v>0.9653713277183786</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9638481764542094</v>
+        <v>0.9653361125387029</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9635409575262028</v>
+        <v>0.9605729475255099</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.932751539412692</v>
+        <v>0.9389708097483425</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1036,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7345432271388097</v>
+        <v>0.8415069644939762</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1050,16 +1050,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7126125957280691</v>
+        <v>0.7635894073838263</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1070,13 +1070,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.7094138241225704</v>
+        <v>0.7255006892571941</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7094138241225704</v>
+        <v>0.7196148656291941</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6972259644090137</v>
+        <v>0.7059586934327143</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.67700320038633</v>
+        <v>0.6846191844520727</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.662401321106836</v>
+        <v>0.6846191844520727</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.6587931237408813</v>
+        <v>0.6746870598259646</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.6561466114626023</v>
+        <v>0.6567569492179612</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1195,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6551289184444044</v>
+        <v>0.6009999944282293</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.6319695884106159</v>
+        <v>0.581675050747111</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.6319695884106159</v>
+        <v>0.5710032099601225</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.6247678713143996</v>
+        <v>0.5474489014513589</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5990275349757903</v>
+        <v>0.5410533317825956</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.5800176942620555</v>
+        <v>0.5407915521798397</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5587564411124247</v>
+        <v>0.5344078655145733</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -1314,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="E50">
-        <v>0.5566364799235598</v>
+        <v>0.5129174228661798</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5261042808091513</v>
+        <v>0.5086661564732401</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.5232681184722836</v>
+        <v>0.5026246899500345</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.5204367791261557</v>
+        <v>0.5017211754859809</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.4771187236136979</v>
+        <v>0.4888359935223859</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4763539698424545</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4737677664811306</v>
+        <v>0.4544554036057564</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>26</v>
       </c>
       <c r="E57">
-        <v>0.4727477533825886</v>
+        <v>0.4491140305992932</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1444,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4618802153517007</v>
+        <v>0.4440509508199598</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4486539006635797</v>
+        <v>0.4392976851069794</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.4428074427700476</v>
+        <v>0.4355893731272462</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4325468462415931</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.4234048992199705</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.4178999257507181</v>
+        <v>0.4308349209349098</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E64">
-        <v>0.4062019202317981</v>
+        <v>0.4289189724878201</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E65">
-        <v>0.4042781965615432</v>
+        <v>0.4236574960736559</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3918080059334081</v>
+        <v>0.4228331571528878</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
         <v>28</v>
       </c>
       <c r="E67">
-        <v>0.3903574446479654</v>
+        <v>0.4170140547738606</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3823910346070372</v>
+        <v>0.4055175020198813</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3779644730092272</v>
+        <v>0.3947710169758614</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1648,13 +1648,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.3779644730092272</v>
+        <v>0.3919087836363683</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3779644730092272</v>
+        <v>0.3914520108599798</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3728490963755067</v>
+        <v>0.3905140383925289</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3716086179230004</v>
+        <v>0.3892494720807615</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
@@ -1722,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3700075261024167</v>
+        <v>0.3835608884405554</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.365251217752111</v>
+        <v>0.3832281891733076</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.3549983037664236</v>
+        <v>0.3748615375949585</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3544025201034645</v>
+        <v>0.3688568320628601</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1784,13 +1784,13 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3534334287016379</v>
+        <v>0.3688555567816588</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3503058327771809</v>
+        <v>0.3449884167824424</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3479575264946242</v>
+        <v>0.3429971702850177</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1835,13 +1835,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3458970382555417</v>
+        <v>0.3401359389256355</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3458064324697944</v>
+        <v>0.3350142987757783</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83">
-        <v>0.339189845431406</v>
+        <v>0.333720318040662</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3366068457814423</v>
+        <v>0.3268365030351831</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1909,7 +1909,7 @@
         <v>26</v>
       </c>
       <c r="E85">
-        <v>0.3248603228478142</v>
+        <v>0.3143165699811567</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.322898804668317</v>
+        <v>0.3136973230950426</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.3216822372225696</v>
+        <v>0.3033946338145015</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>28</v>
       </c>
       <c r="E88">
-        <v>0.3072946937840564</v>
+        <v>0.2980677963289149</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
       </c>
       <c r="E89">
-        <v>0.304138126514911</v>
+        <v>0.2927700218845599</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.3027558410520444</v>
+        <v>0.2927700218845599</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E91">
-        <v>0.3006939425818591</v>
+        <v>0.291512200425957</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2986046493595304</v>
+        <v>0.2877809400671696</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2942600103566168</v>
+        <v>0.2877408461344085</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2056,13 +2056,13 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2915475947422649</v>
+        <v>0.2780083984829228</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2912913174101315</v>
+        <v>0.2773924277618671</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2912553778731394</v>
+        <v>0.2760230625332792</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2800840841382731</v>
+        <v>0.2654539945747475</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E98">
-        <v>0.2792077886580385</v>
+        <v>0.2637598479218312</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2730468080593755</v>
+        <v>0.2580554517508201</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2720591606177411</v>
+        <v>0.2574698853581366</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2700293528849171</v>
+        <v>0.2570502638549618</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2686076546751267</v>
+        <v>0.2555824780550388</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103">
-        <v>0.2675428817057575</v>
+        <v>0.2554349643384612</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2633015972082907</v>
+        <v>0.2538083399323159</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2612940044051167</v>
+        <v>0.2532451299305938</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2598101901036446</v>
+        <v>0.2529034622770988</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2569891856737328</v>
+        <v>0.2523244734627932</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E108">
-        <v>0.2569266553444163</v>
+        <v>0.2515174076511375</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2311,13 +2311,13 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2562259489569682</v>
+        <v>0.25100004729485</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2553985204372828</v>
+        <v>0.2502274888528224</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2549861654199435</v>
+        <v>0.2483657977007945</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>0.254441667087431</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>0.2532655276369474</v>
+        <v>0.2462704267987459</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2504847499035158</v>
+        <v>0.2448848763025169</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E115">
-        <v>0.2502944231428999</v>
+        <v>0.244680832642355</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2482016040418749</v>
+        <v>0.241973291059352</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2479803477567594</v>
+        <v>0.2409407615336953</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E118">
-        <v>0.2457451738489492</v>
+        <v>0.2380979787440759</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2433119825644331</v>
+        <v>0.2377781347488815</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
       </c>
       <c r="E120">
-        <v>0.2399551026513323</v>
+        <v>0.2370102195924552</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.2386178609155769</v>
+        <v>0.2357778664459239</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>0.2381411353216238</v>
+        <v>0.2339410381771963</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2365517645479685</v>
+        <v>0.2337057465322592</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2365401993457209</v>
+        <v>0.232922821502405</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E125">
-        <v>0.2356068307557347</v>
+        <v>0.232580055382773</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
         <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>0.233439859298535</v>
+        <v>0.2309801080316014</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>0.2320385001326848</v>
+        <v>0.2289527349448126</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.231626695693981</v>
+        <v>0.2286334671964666</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2299253750340329</v>
+        <v>0.2280647099604279</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2265622440688012</v>
+        <v>0.2277999255579268</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2263762439805899</v>
+        <v>0.2271110550045672</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2257074790896489</v>
+        <v>0.2268355277551421</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,7 +2716,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -2725,7 +2725,7 @@
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2247633105577768</v>
+        <v>0.2258884806945142</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E134">
-        <v>0.2237293099220227</v>
+        <v>0.2245603491878084</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.2232598648837851</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2773,10 +2773,10 @@
         <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.222509845672428</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2206964291978529</v>
+        <v>0.2219553882886655</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2204405322715844</v>
+        <v>0.2218802431076553</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E139">
-        <v>0.2201985376897095</v>
+        <v>0.2216053117852463</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2193397266408229</v>
+        <v>0.2212127998733768</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2185212558695798</v>
+        <v>0.2211635319220243</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2170960725595776</v>
+        <v>0.2206928367515559</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2169479220336891</v>
+        <v>0.2204154643723453</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2912,7 +2912,7 @@
         <v>29</v>
       </c>
       <c r="E144">
-        <v>0.2155630870586374</v>
+        <v>0.2202680997374066</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2923,13 +2923,13 @@
         <v>17</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2153713758370822</v>
+        <v>0.2199553275004926</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E146">
-        <v>0.215277628980466</v>
+        <v>0.2192578036391351</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2151806210442297</v>
+        <v>0.2191523395322436</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2142128319131462</v>
+        <v>0.218910404375999</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.213317256316557</v>
+        <v>0.2182178902359923</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3008,13 +3008,13 @@
         <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2127171074493348</v>
+        <v>0.2175554475210126</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E151">
-        <v>0.2121000366038794</v>
+        <v>0.2167849150801436</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3042,13 +3042,13 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2107216879882942</v>
+        <v>0.2167269901059526</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2096487563950853</v>
+        <v>0.2162383315502361</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2082391424207105</v>
+        <v>0.2152412842849075</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.2069844083020443</v>
+        <v>0.2136191592790852</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2068338917791361</v>
+        <v>0.2117524206028026</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E157">
-        <v>0.2067032454086942</v>
+        <v>0.2094451668093468</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.2059949202836361</v>
+        <v>0.2092200473183382</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
       </c>
       <c r="E159">
-        <v>0.205919609185145</v>
+        <v>0.2074490628150451</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3181,10 +3181,10 @@
         <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.2056481485750642</v>
+        <v>0.2068338917791361</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2055053355508932</v>
+        <v>0.2059646087917152</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E162">
-        <v>0.2049451487590075</v>
+        <v>0.2049393157575915</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.2038670024865492</v>
+        <v>0.2043634705047992</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.203675407407314</v>
+        <v>0.2038699682196977</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2022311130257678</v>
+        <v>0.2028170733827648</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
       </c>
       <c r="E166">
-        <v>0.2000759765616578</v>
+        <v>0.2026694636364226</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E167">
-        <v>0.1990025133327276</v>
+        <v>0.2021404440456074</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
       </c>
       <c r="E168">
-        <v>0.1970845042740498</v>
+        <v>0.2004186018721237</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E169">
-        <v>0.195140935837307</v>
+        <v>0.1977637588469154</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1948654032559271</v>
+        <v>0.1972230187929942</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1938266301808297</v>
+        <v>0.1955670640358257</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172">
-        <v>0.1937548563981302</v>
+        <v>0.1949925603869309</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E173">
-        <v>0.1935834614762807</v>
+        <v>0.1945638728768626</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1932809871300707</v>
+        <v>0.1943732009476854</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E175">
-        <v>0.1927266690059833</v>
+        <v>0.1914233818002045</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
         <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1906152379093386</v>
+        <v>0.1909937014058494</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1881465679768373</v>
+        <v>0.190715655508162</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1874423111209797</v>
+        <v>0.1898872664154009</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1869715742725467</v>
+        <v>0.1881465679768373</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1862235240730233</v>
+        <v>0.1862145915224348</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1839229813817535</v>
+        <v>0.1849194062018925</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1836986520387713</v>
+        <v>0.1840478025774517</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
         <v>29</v>
       </c>
       <c r="E183">
-        <v>0.1835514754737197</v>
+        <v>0.1790298270397176</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.1835401143490245</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E185">
-        <v>0.1827936147739685</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E186">
-        <v>0.1820965036785651</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E187">
-        <v>0.1803246084532375</v>
+        <v>0.176271370360778</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
         <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1798162102285153</v>
+        <v>0.176255520500828</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
         <v>29</v>
       </c>
       <c r="E189">
-        <v>0.1787284137714941</v>
+        <v>0.1761778846409521</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1781492853011776</v>
+        <v>0.1760890737830977</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E191">
-        <v>0.1781492853011776</v>
+        <v>0.1756013370929979</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3722,13 +3722,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
       </c>
       <c r="E192">
-        <v>0.1781492853011776</v>
+        <v>0.1736822116219598</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,7 +3736,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -3745,7 +3745,7 @@
         <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1771000877355731</v>
+        <v>0.1734262421019721</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1765523678276402</v>
+        <v>0.173109964999751</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.1748290187627081</v>
+        <v>0.1720551083113477</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1746948697842816</v>
+        <v>0.1718522218175734</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.174271233554907</v>
+        <v>0.1692196509432418</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1737585415206913</v>
+        <v>0.1691828165989438</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1734423232776957</v>
+        <v>0.1690214344876134</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1734297901679001</v>
+        <v>0.1682613940093751</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
         <v>28</v>
       </c>
       <c r="E201">
-        <v>0.1726270022557235</v>
+        <v>0.167299793816193</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
         <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1695073969908534</v>
+        <v>0.1663974837342997</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3909,13 +3909,13 @@
         <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1691684261886363</v>
+        <v>0.1640333023560886</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3926,13 +3926,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1680239764939613</v>
+        <v>0.1591478432822143</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1670515883199176</v>
+        <v>0.1562526089061178</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.166482300487326</v>
+        <v>0.1559452313605529</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E207">
-        <v>0.1662199761767102</v>
+        <v>0.1554756729076975</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E208">
-        <v>0.162541236751738</v>
+        <v>0.1541097447439034</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>20</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E209">
-        <v>0.162532549674594</v>
+        <v>0.1523657354488562</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4034,7 +4034,7 @@
         <v>27</v>
       </c>
       <c r="E210">
-        <v>0.1601884998233612</v>
+        <v>0.1521765913957621</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4045,13 +4045,13 @@
         <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E211">
-        <v>0.1587768372074888</v>
+        <v>0.1515366649639946</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1570897594367872</v>
+        <v>0.1505861401365627</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.156747592324016</v>
+        <v>0.150006513238712</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1532800767336235</v>
+        <v>0.1489595693389313</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1520809450454378</v>
+        <v>0.1470677211070505</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1507102329489253</v>
+        <v>0.1468729516986942</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
         <v>18</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1503700849173526</v>
+        <v>0.1465583801389147</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E218">
-        <v>0.1493240432270699</v>
+        <v>0.1459199519337175</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1489272671582895</v>
+        <v>0.1448743768212754</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,7 +4195,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
@@ -4204,7 +4204,7 @@
         <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1478683692815998</v>
+        <v>0.144376324465214</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>0.1474381874306266</v>
+        <v>0.1436882718874852</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1471306460266477</v>
+        <v>0.1436642881688704</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1458790935820605</v>
+        <v>0.1435820202622546</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1451460551673905</v>
+        <v>0.1434064980075107</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E225">
-        <v>0.1450615154879948</v>
+        <v>0.1428338869528963</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E226">
-        <v>0.1441970091679745</v>
+        <v>0.1418604472867742</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1431827572252114</v>
+        <v>0.1415286974130315</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D228" t="s">
         <v>29</v>
       </c>
       <c r="E228">
-        <v>0.14307206886476</v>
+        <v>0.1407196959155005</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E229">
-        <v>0.1430506394889535</v>
+        <v>0.1400952628712856</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1421290628715735</v>
+        <v>0.1393245384601686</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
         <v>26</v>
       </c>
       <c r="E231">
-        <v>0.1419022204819636</v>
+        <v>0.1392935628335031</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1403477604656939</v>
+        <v>0.1390823484585596</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1398828765534027</v>
+        <v>0.1390216368389635</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1396572964758052</v>
+        <v>0.138767881683404</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.13963246408961</v>
+        <v>0.1387096232644778</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1394609774404008</v>
+        <v>0.1386779156666379</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1391143374356137</v>
+        <v>0.1383048364175707</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4504,13 +4504,13 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.1389874384184577</v>
+        <v>0.1379131040212692</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.1386353926817893</v>
+        <v>0.1375603919402243</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4538,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
         <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1384973769440759</v>
+        <v>0.1367729609236136</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1383834082517826</v>
+        <v>0.1367456350392698</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1383294620720429</v>
+        <v>0.1367380627922594</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
         <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1381032625009422</v>
+        <v>0.1360043099146993</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E244">
-        <v>0.1377226614809975</v>
+        <v>0.1357059942256484</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1375225001561062</v>
+        <v>0.1337988119353975</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246">
-        <v>0.137218970976478</v>
+        <v>0.1334964757217369</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>7</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.137053674030694</v>
+        <v>0.1332209404637777</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1364442057274537</v>
+        <v>0.1325783876178739</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4694,10 +4694,10 @@
         <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1359411779751271</v>
+        <v>0.1325546852549762</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1354774783549149</v>
+        <v>0.1324337193417456</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1354734056788472</v>
+        <v>0.1319662392300414</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
         <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1351614243194406</v>
+        <v>0.1317199413725458</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,7 +4756,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C253" t="s">
         <v>25</v>
@@ -4765,7 +4765,7 @@
         <v>26</v>
       </c>
       <c r="E253">
-        <v>0.1347319883415942</v>
+        <v>0.1309596186242908</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1341553234478982</v>
+        <v>0.1306266684985151</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1314373656030109</v>
+        <v>0.1303836332404534</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.1291896926615149</v>
+        <v>0.1293622972850411</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1290894577040579</v>
+        <v>0.1291285981879797</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1288321044968988</v>
+        <v>0.1286299624115246</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
         <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1280639399794083</v>
+        <v>0.1282903164985572</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1280038296516561</v>
+        <v>0.1279407015343416</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D261" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1266121878944243</v>
+        <v>0.1275323824320963</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1265945619833498</v>
+        <v>0.12726559842302</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1263777966865076</v>
+        <v>0.1267452100579627</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1262822260990382</v>
+        <v>0.126452970650175</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1250071434056514</v>
+        <v>0.1261333175241322</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1245846317595991</v>
+        <v>0.1259277050779675</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1238961625936553</v>
+        <v>0.1257619776250176</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1237546647454632</v>
+        <v>0.1244749116023469</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>23</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1235339072277442</v>
+        <v>0.1235616010935023</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1231441885899077</v>
+        <v>0.1232205698045935</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E271">
-        <v>0.1225519026538631</v>
+        <v>0.1230965777198759</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1220598252116823</v>
+        <v>0.122904303682777</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.121631692385604</v>
+        <v>0.1224740881630789</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1211375210476868</v>
+        <v>0.1221629783066596</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5133,13 +5133,13 @@
         <v>10</v>
       </c>
       <c r="C275" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D275" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1202631022577126</v>
+        <v>0.1219825018919028</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1197538697415017</v>
+        <v>0.1219151617341274</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5173,7 +5173,7 @@
         <v>28</v>
       </c>
       <c r="E277">
-        <v>0.1195101735043155</v>
+        <v>0.1218166073616583</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1193945324864628</v>
+        <v>0.1206302018160169</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1179107834397814</v>
+        <v>0.120394256326931</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,7 +5215,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C280" t="s">
         <v>19</v>
@@ -5224,7 +5224,7 @@
         <v>29</v>
       </c>
       <c r="E280">
-        <v>0.1177741050781331</v>
+        <v>0.1199333566488123</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1171744750290704</v>
+        <v>0.1195771240069042</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C282" t="s">
         <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1170974147015759</v>
+        <v>0.1186474344132363</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D283" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1169496511401059</v>
+        <v>0.1183525015712174</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D284" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E284">
-        <v>0.1158978817155201</v>
+        <v>0.1176759040114205</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E285">
-        <v>0.1154190756364062</v>
+        <v>0.1176207383657746</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E286">
-        <v>0.1135605170333236</v>
+        <v>0.1175659027592651</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5337,13 +5337,13 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1128486794573159</v>
+        <v>0.1175147297603659</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C288" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288">
-        <v>0.11255070903556</v>
+        <v>0.1163379214977841</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D289" t="s">
         <v>26</v>
       </c>
       <c r="E289">
-        <v>0.1125162707349073</v>
+        <v>0.1158029417420269</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1117475390669186</v>
+        <v>0.1155978058612136</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D291" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E291">
-        <v>0.1117475390669186</v>
+        <v>0.1155944165592145</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1117475390669186</v>
+        <v>0.114922292458903</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D293" t="s">
         <v>28</v>
       </c>
       <c r="E293">
-        <v>0.111484634561887</v>
+        <v>0.1139215937009452</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1112061997986989</v>
+        <v>0.1134677779755094</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5473,13 +5473,13 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1111489836964262</v>
+        <v>0.1130156280413531</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E296">
-        <v>0.1108157144790695</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D297" t="s">
         <v>27</v>
       </c>
       <c r="E297">
-        <v>0.1106594900166794</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D298" t="s">
         <v>27</v>
       </c>
       <c r="E298">
-        <v>0.1102194973491893</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1101721644525606</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1101667296751299</v>
+        <v>0.1109844103067173</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1100938282892275</v>
+        <v>0.1102194973491893</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5592,13 +5592,13 @@
         <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.1092907591662058</v>
+        <v>0.1100196794666946</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1090038700772833</v>
+        <v>0.1099942912104813</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D304" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E304">
-        <v>0.1088922999271899</v>
+        <v>0.1093584044777138</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E305">
-        <v>0.1085616273389707</v>
+        <v>0.1088162296549318</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,7 +5657,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C306" t="s">
         <v>18</v>
@@ -5666,7 +5666,7 @@
         <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1076178047752693</v>
+        <v>0.1087287111482389</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D307" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1072655861357482</v>
+        <v>0.1085330094483739</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D308" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E308">
-        <v>0.1072500536250404</v>
+        <v>0.1081878874907101</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1071901148096277</v>
+        <v>0.1081624288788153</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1070718971612237</v>
+        <v>0.1079362662518156</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D311" t="s">
         <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1070175718587945</v>
+        <v>0.1075981647994721</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5762,13 +5762,13 @@
         <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D312" t="s">
         <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1066564981926293</v>
+        <v>0.1074512753920229</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E313">
-        <v>0.1064806824959824</v>
+        <v>0.1073558214830775</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5796,13 +5796,13 @@
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1056769965030601</v>
+        <v>0.1067024662344667</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1054388177509604</v>
+        <v>0.1061427921690639</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1053359551454156</v>
+        <v>0.1061318561778676</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.1053310203564073</v>
+        <v>0.1059568527991545</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5864,13 +5864,13 @@
         <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1047047045654396</v>
+        <v>0.105442654387156</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
         <v>28</v>
       </c>
       <c r="E319">
-        <v>0.104503601150251</v>
+        <v>0.1042641657729476</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5898,13 +5898,13 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E320">
-        <v>0.1030983315250115</v>
+        <v>0.1025773981583009</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E321">
-        <v>0.1030813784453671</v>
+        <v>0.1024890289002738</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D322" t="s">
         <v>28</v>
       </c>
       <c r="E322">
-        <v>0.1030361875891499</v>
+        <v>0.1024306172892039</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5949,13 +5949,13 @@
         <v>6</v>
       </c>
       <c r="C323" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D323" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1005841225332503</v>
+        <v>0.101993810960996</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C324" t="s">
         <v>25</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.1004950651787712</v>
+        <v>0.1005921510000466</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
         <v>24</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.1002137448202147</v>
+        <v>0.09951154976804236</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
         <v>26</v>
       </c>
       <c r="E326">
-        <v>0.09986981333327517</v>
+        <v>0.09937087564530053</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
         <v>29</v>
       </c>
       <c r="E327">
-        <v>0.0998073257142299</v>
+        <v>0.09928415679762249</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,7 +6031,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
         <v>25</v>
@@ -6040,7 +6040,7 @@
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09973438586685116</v>
+        <v>0.0976609595182994</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C329" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.09970195483143648</v>
+        <v>0.09756193538815748</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.0986863659072094</v>
+        <v>0.09699554591966274</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C331" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
         <v>26</v>
       </c>
       <c r="E331">
-        <v>0.09827768085863979</v>
+        <v>0.09602151148204784</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E332">
-        <v>0.09794050330059778</v>
+        <v>0.09601249912251472</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09750087055793277</v>
+        <v>0.09412349090571009</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C334" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E334">
-        <v>0.09748512800969196</v>
+        <v>0.09381313687849736</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6153,13 +6153,13 @@
         <v>14</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D335" t="s">
         <v>26</v>
       </c>
       <c r="E335">
-        <v>0.09694421591209017</v>
+        <v>0.09312200144419265</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6170,13 +6170,13 @@
         <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E336">
-        <v>0.09474758609196747</v>
+        <v>0.09311392902865206</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E337">
-        <v>0.09354763890908087</v>
+        <v>0.09300360878281831</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09309084881033454</v>
+        <v>0.09240456656010275</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6221,13 +6221,13 @@
         <v>14</v>
       </c>
       <c r="C339" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D339" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.0930484210398473</v>
+        <v>0.09194855517538843</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09244415854375243</v>
+        <v>0.09102842273633101</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.09100199060143074</v>
+        <v>0.08945144929371006</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D342" t="s">
         <v>26</v>
       </c>
       <c r="E342">
-        <v>0.0894163831594995</v>
+        <v>0.08931955398179259</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.08850392999029945</v>
+        <v>0.08913453107036153</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C344" t="s">
         <v>23</v>
       </c>
       <c r="D344" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.0868211703348761</v>
+        <v>0.08808461156011878</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E345">
-        <v>0.08646124067862615</v>
+        <v>0.08317525118738943</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E346">
-        <v>0.08398981462066615</v>
+        <v>0.0823169680874303</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
         <v>28</v>
       </c>
       <c r="E347">
-        <v>0.08183049057874862</v>
+        <v>0.0820575157254457</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D348" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.08133801095336705</v>
+        <v>0.08095285797408602</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.08110618851241393</v>
+        <v>0.07968411688309303</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E350">
-        <v>0.08035833072297711</v>
+        <v>0.07804434862095094</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D351" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.07958039987178628</v>
+        <v>0.07648930378040412</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D352" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E352">
-        <v>0.0770253600152946</v>
+        <v>0.07615028497608989</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
         <v>29</v>
       </c>
       <c r="E353">
-        <v>0.07696476120112801</v>
+        <v>0.0756819078303287</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
         <v>29</v>
       </c>
       <c r="E354">
-        <v>0.07686867660333103</v>
+        <v>0.0746723695934899</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C355" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
         <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07652782694480571</v>
+        <v>0.0745775280238454</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C356" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D356" t="s">
         <v>28</v>
       </c>
       <c r="E356">
-        <v>0.07448104097450672</v>
+        <v>0.07401864084353564</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D357" t="s">
         <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07421211500516334</v>
+        <v>0.07373477904643547</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C358" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07341616439849036</v>
+        <v>0.07370225570087152</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
         <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07328962534935025</v>
+        <v>0.07279684066934017</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C360" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D360" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E360">
-        <v>0.07270276057297208</v>
+        <v>0.07225642790696583</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D361" t="s">
         <v>26</v>
       </c>
       <c r="E361">
-        <v>0.07265725596702437</v>
+        <v>0.07216666937964319</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.0723769791107505</v>
+        <v>0.06700700576242415</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.07166135365905724</v>
+        <v>0.06671215584565961</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.07159238515514595</v>
+        <v>0.06627433354693674</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C365" t="s">
         <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E365">
-        <v>0.07116189509472755</v>
+        <v>0.06520379805648283</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366">
-        <v>0.07087586886277457</v>
+        <v>0.0643147204431989</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D367" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E367">
-        <v>0.06794256229307809</v>
+        <v>0.05997536615310781</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D368" t="s">
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06719009957685201</v>
+        <v>0.05948457662398098</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C369" t="s">
         <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06515115955406985</v>
+        <v>0.05924475957690858</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6748,13 +6748,13 @@
         <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E370">
-        <v>0.06461018107420954</v>
+        <v>0.05707989933418951</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D371" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E371">
-        <v>0.06296283296268131</v>
+        <v>0.05668520008692312</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E372">
-        <v>0.06123582458419128</v>
+        <v>0.05556479105121644</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D373" t="s">
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.06112302743506651</v>
+        <v>0.05468260115821558</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D374" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.06058981207373057</v>
+        <v>0.05285081687423077</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D375" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E375">
-        <v>0.06034306984714197</v>
+        <v>0.0487325970816869</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.05931416534915946</v>
+        <v>0.04651564526886676</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.05819308805340562</v>
+        <v>0.03419684543725303</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.05593631334245713</v>
+        <v>0.03096107690834954</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D379" t="s">
         <v>28</v>
       </c>
       <c r="E379">
-        <v>0.05545443623560827</v>
+        <v>0.02880687223927952</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.05290890400370474</v>
+        <v>0.02828470730689514</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.05092805176739825</v>
+        <v>0.01838046968870161</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,7 +6949,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C382" t="s">
         <v>25</v>
@@ -6958,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04505262435538434</v>
+        <v>0.01699107733728512</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.04239342469581843</v>
+        <v>0.01509132403754852</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.03091611814648149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.01693413024676163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C388" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
         <v>21</v>
@@ -7153,7 +7153,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C399" t="s">
         <v>21</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,7 +7272,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C401" t="s">
         <v>25</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C403" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7326,7 +7326,7 @@
         <v>17</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,7 +7374,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C411" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C412" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C413" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C416" t="s">
         <v>21</v>
@@ -7544,7 +7544,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C417" t="s">
         <v>21</v>
